--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -1,217 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ExternalSourceCookie</t>
-  </si>
-  <si>
-    <t>ExternalSourceName</t>
-  </si>
-  <si>
-    <t>MediaInfoId</t>
-  </si>
-  <si>
-    <t>MediaName</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -511,161 +473,162 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -719,11 +682,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -975,78 +1001,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col width="5.375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="22.625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="20.375" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.625" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.375" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ExternalSourceCookie</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ExternalSourceName</t>
+        </is>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MediaInfoId</t>
+        </is>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MediaName</t>
+        </is>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -621,10 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,48 +1003,383 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="5.375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="22.625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="20.375" customWidth="1" style="2" min="3" max="3"/>
-    <col width="12.625" customWidth="1" style="2" min="4" max="4"/>
-    <col width="10.375" customWidth="1" style="2" min="5" max="5"/>
+    <col width="5.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="10.375" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>ExternalSourceCookie</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>ExternalSourceName</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>MediaInfoId</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>MediaName</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_01.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_02.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_03.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_04.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_05.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_06.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_07.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_08.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_01.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_02.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_03.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_04.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_05.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_07.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_08.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_09.wem</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -1003,10 +1003,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1986569276</v>
@@ -1058,326 +1058,32 @@
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_01.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_02.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_03.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_04.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_05.wem</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4565</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1853303379</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
-          <t>v12</t>
+          <t>cg</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D3" t="n">
+        <v>4565</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
-          <t>VO_External_Emotion_C01_06.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_07.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_08.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_01.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_02.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_03.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_04.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_05.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_07.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_08.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_09.wem</t>
+          <t>Imp_Knife_Chop_Flesh_Cri_R04.wem</t>
         </is>
       </c>
     </row>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -1067,21 +1067,21 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="0" t="n">
         <v>4565</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>1853303379</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>cg</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0" t="n">
         <v>4565</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>Imp_Knife_Chop_Flesh_Cri_R04.wem</t>
         </is>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -621,11 +621,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1003,10 +1006,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1019,71 +1022,554 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>ExternalSourceCookie</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ExternalSourceName</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>MediaInfoId</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>MediaName</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C08_01.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C08_02.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C08_03.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_01.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_02.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_03.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_04.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B9" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_05.wem</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>4565</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1853303379</v>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>cg</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>4565</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Imp_Knife_Chop_Flesh_Cri_R04.wem</t>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_06.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_07.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_08.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C01_09.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_01.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_02.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_03.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_04.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_05.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_06.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_07.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_08.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>VO_External_Emotion_C02_09.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Chapter001A_Act001a_PL_S_Sec001F.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Chapter001A_Act001a_PL_S_Sec002F.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Chapter001A_Act001a_PL_S_Sec003F.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Chapter001A_Act001a_PL_S_Sec004F.wem</t>
         </is>
       </c>
     </row>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -621,14 +621,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,10 +1003,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1022,554 +1019,491 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>ExternalSourceCookie</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>ExternalSourceName</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>MediaInfoId</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>MediaName</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="B2" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C08_01.wem</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B3" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C08_02.wem</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C08_03.wem</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_01.wem</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_02.wem</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="B7" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_03.wem</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="B8" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_04.wem</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="B9" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_05.wem</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="B10" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_06.wem</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="B11" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_07.wem</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="B12" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_08.wem</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="B13" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C01_09.wem</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="B14" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_01.wem</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="B15" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_02.wem</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="B16" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_03.wem</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="B17" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_04.wem</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="B18" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_05.wem</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="B19" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_06.wem</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="B20" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_07.wem</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
+      <c r="B21" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_08.wem</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
+      <c r="B22" s="0" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>VO_External_Emotion_C02_09.wem</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Chapter001A_Act001a_PL_S_Sec001F.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Chapter001A_Act001a_PL_S_Sec002F.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Chapter001A_Act001a_PL_S_Sec003F.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Chapter001A_Act001a_PL_S_Sec004F.wem</t>
+      <c r="A23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3935774189</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>c12</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>CG_External_Map_A02_Combat_Boss_Start.wem</t>
         </is>
       </c>
     </row>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -1003,10 +1003,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1505,6 +1505,11 @@
         <is>
           <t>CG_External_Map_A02_Combat_Boss_Start.wem</t>
         </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="0" t="n">
+        <v>55555</v>
       </c>
     </row>
   </sheetData>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -1003,13 +1003,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col width="5.375" customWidth="1" style="1" min="1" max="1"/>
     <col width="22.625" customWidth="1" style="1" min="2" max="2"/>
@@ -1047,469 +1047,23 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1986569276</v>
+        <v>1853303301</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>v12</t>
+          <t>c1</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>VO_External_Emotion_C08_01.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C08_02.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C08_03.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_01.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_02.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_03.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_04.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_05.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_06.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_07.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_08.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C01_09.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_01.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_02.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_03.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_04.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_05.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_06.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_07.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_08.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1986569276</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>VO_External_Emotion_C02_09.wem</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>3935774189</v>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>c12</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
           <t>CG_External_Map_A02_Combat_Boss_Start.wem</t>
         </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" s="0" t="n">
-        <v>55555</v>
       </c>
     </row>
   </sheetData>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/ExternalSourceDefaultMedia.xlsx
@@ -1003,13 +1003,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="5.375" customWidth="1" style="1" min="1" max="1"/>
     <col width="22.625" customWidth="1" style="1" min="2" max="2"/>
@@ -1046,23 +1046,1514 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1853303301</v>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>CG_External_Map_A02_Combat_Boss_Start.wem</t>
+      <c r="A2" t="n">
+        <v>60001</v>
+      </c>
+      <c r="B2" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>60001</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_01.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60002</v>
+      </c>
+      <c r="B3" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>60002</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_02.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60003</v>
+      </c>
+      <c r="B4" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>60003</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_03.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60004</v>
+      </c>
+      <c r="B5" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>60004</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_04.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60005</v>
+      </c>
+      <c r="B6" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>60005</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_05.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60006</v>
+      </c>
+      <c r="B7" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>60006</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_06.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60007</v>
+      </c>
+      <c r="B8" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>60007</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_07.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60008</v>
+      </c>
+      <c r="B9" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>60008</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_08.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60009</v>
+      </c>
+      <c r="B10" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>60009</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_09.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60010</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>60010</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_10.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60011</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>60011</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_11.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60012</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>60012</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_12.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>60013</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_13.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60014</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>60014</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_14.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60015</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>60015</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_15.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60016</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>60016</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_16.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60017</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>60017</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_17.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60018</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>60018</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_18.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60019</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>60019</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_19.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60020</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>60020</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_20.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60021</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>60021</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_21.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60022</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>60022</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_22.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60023</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>60023</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_23.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60024</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>60024</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_24.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60025</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>60025</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_25.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60026</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>60026</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_26.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60027</v>
+      </c>
+      <c r="B28" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>60027</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_27.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60028</v>
+      </c>
+      <c r="B29" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>60028</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_28.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60029</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>60029</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_29.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60030</v>
+      </c>
+      <c r="B31" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>60030</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_30.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60031</v>
+      </c>
+      <c r="B32" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>60031</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_31.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60032</v>
+      </c>
+      <c r="B33" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>60032</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_32.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60033</v>
+      </c>
+      <c r="B34" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>60033</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_33.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60034</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>60034</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_34.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60035</v>
+      </c>
+      <c r="B36" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>60035</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_35.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60036</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>60036</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_36.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60037</v>
+      </c>
+      <c r="B38" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>60037</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_37.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60038</v>
+      </c>
+      <c r="B39" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>60038</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_38.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60039</v>
+      </c>
+      <c r="B40" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>60039</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_39.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60040</v>
+      </c>
+      <c r="B41" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>60040</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_40.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60041</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>60041</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_41.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60042</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>60042</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_42.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60043</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>60043</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_43.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60044</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>60044</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_44.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60045</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>60045</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_45.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60046</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>60046</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_46.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60047</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>60047</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_47.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60048</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>60048</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_48.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60049</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>60049</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_49.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60050</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>60050</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_50.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60051</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>60051</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_51.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60052</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>60052</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_52.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60053</v>
+      </c>
+      <c r="B54" t="n">
+        <v>560471565</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vn2</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>60053</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_53.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60054</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>60054</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_54.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60055</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>60055</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_55.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60056</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>60056</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_56.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60057</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>60057</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_57.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60058</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>60058</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_58.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60059</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>60059</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_59.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60060</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>60060</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_60.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60061</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>60061</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_61.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60062</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>60062</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_62.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60063</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>60063</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_63.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60064</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>60064</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_64.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60065</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>60065</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_65.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60066</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>60066</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_66.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60067</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>60067</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_67.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60068</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1953013978</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>v32</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>60068</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_68.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60069</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>60069</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_69.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60070</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>60070</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_70.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60071</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>60071</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_71.wem</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60072</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1986569276</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>60072</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>VO_External_C_00_72.wem</t>
         </is>
       </c>
     </row>
